--- a/000-要件定義/003-WBS_テンプレート.xlsx
+++ b/000-要件定義/003-WBS_テンプレート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusukeyamano\Downloads\第一情報システムズ様-selected (1)\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="必須機能スケジュール (テンプレート)" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="71">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -611,6 +611,10 @@
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1780,12 +1784,108 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1798,18 +1898,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1858,41 +1946,98 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1900,52 +2045,40 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,135 +2088,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2949,107 +2953,107 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCellId="1" sqref="A1:A3 A1:A3"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="4" customWidth="1"/>
-    <col min="6" max="66" width="3.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="4" customWidth="1"/>
+    <col min="6" max="66" width="3.109375" style="4" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="71">
+      <c r="F1" s="82">
         <v>45901</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="71">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="82">
         <v>45931</v>
       </c>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="72"/>
-      <c r="BN1" s="164"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="83"/>
+      <c r="BB1" s="83"/>
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="83"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="83"/>
+      <c r="BJ1" s="83"/>
+      <c r="BK1" s="83"/>
+      <c r="BL1" s="83"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="71"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="49">
         <v>42156</v>
       </c>
@@ -3236,93 +3240,93 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="156" t="s">
+      <c r="G3" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="63" t="s">
         <v>62</v>
       </c>
       <c r="J3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="156" t="s">
+      <c r="K3" s="63" t="s">
         <v>64</v>
       </c>
       <c r="L3" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="156" t="s">
+      <c r="M3" s="63" t="s">
         <v>66</v>
       </c>
       <c r="N3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="156" t="s">
+      <c r="O3" s="63" t="s">
         <v>61</v>
       </c>
       <c r="P3" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="156" t="s">
+      <c r="Q3" s="63" t="s">
         <v>63</v>
       </c>
       <c r="R3" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="156" t="s">
+      <c r="S3" s="63" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="156" t="s">
+      <c r="U3" s="63" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="156" t="s">
+      <c r="W3" s="63" t="s">
         <v>62</v>
       </c>
       <c r="X3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="156" t="s">
+      <c r="Y3" s="63" t="s">
         <v>64</v>
       </c>
       <c r="Z3" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="156" t="s">
+      <c r="AA3" s="63" t="s">
         <v>66</v>
       </c>
       <c r="AB3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="AC3" s="156" t="s">
+      <c r="AC3" s="63" t="s">
         <v>61</v>
       </c>
       <c r="AD3" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="156" t="s">
+      <c r="AE3" s="63" t="s">
         <v>63</v>
       </c>
       <c r="AF3" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="156" t="s">
+      <c r="AG3" s="63" t="s">
         <v>65</v>
       </c>
       <c r="AH3" s="60" t="s">
@@ -3334,91 +3338,91 @@
       <c r="AJ3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" s="156" t="s">
+      <c r="AK3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="AL3" s="156" t="s">
+      <c r="AL3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" s="156" t="s">
+      <c r="AM3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" s="156" t="s">
+      <c r="AN3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AO3" s="156" t="s">
+      <c r="AO3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="AP3" s="156" t="s">
+      <c r="AP3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="AQ3" s="156" t="s">
+      <c r="AQ3" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AR3" s="156" t="s">
+      <c r="AR3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="AS3" s="156" t="s">
+      <c r="AS3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="AT3" s="156" t="s">
+      <c r="AT3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="AU3" s="156" t="s">
+      <c r="AU3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AV3" s="156" t="s">
+      <c r="AV3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="AW3" s="156" t="s">
+      <c r="AW3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="AX3" s="156" t="s">
+      <c r="AX3" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AY3" s="156" t="s">
+      <c r="AY3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="AZ3" s="156" t="s">
+      <c r="AZ3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="BA3" s="156" t="s">
+      <c r="BA3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="BB3" s="156" t="s">
+      <c r="BB3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="BC3" s="156" t="s">
+      <c r="BC3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="BD3" s="156" t="s">
+      <c r="BD3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="BE3" s="156" t="s">
+      <c r="BE3" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="BF3" s="156" t="s">
+      <c r="BF3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="BG3" s="156" t="s">
+      <c r="BG3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="BH3" s="156" t="s">
+      <c r="BH3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="BI3" s="156" t="s">
+      <c r="BI3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="BJ3" s="156" t="s">
+      <c r="BJ3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="BK3" s="156" t="s">
+      <c r="BK3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="BL3" s="156" t="s">
+      <c r="BL3" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="BM3" s="156" t="s">
+      <c r="BM3" s="63" t="s">
         <v>61</v>
       </c>
       <c r="BN3" s="59" t="s">
@@ -3427,17 +3431,17 @@
       <c r="BO3" s="48"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="63">
+      <c r="A4" s="72">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="53"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -3467,7 +3471,7 @@
       <c r="AF4" s="17"/>
       <c r="AG4" s="23"/>
       <c r="AH4" s="10"/>
-      <c r="AI4" s="157"/>
+      <c r="AI4" s="64"/>
       <c r="AJ4" s="53"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
@@ -3498,18 +3502,20 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="157"/>
+      <c r="BN4" s="64"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="94"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="55"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="J5" s="25"/>
       <c r="K5" s="26"/>
       <c r="L5" s="27"/>
@@ -3535,7 +3541,7 @@
       <c r="AF5" s="26"/>
       <c r="AG5" s="27"/>
       <c r="AH5" s="25"/>
-      <c r="AI5" s="158"/>
+      <c r="AI5" s="65"/>
       <c r="AJ5" s="55"/>
       <c r="AK5" s="25"/>
       <c r="AL5" s="25"/>
@@ -3566,20 +3572,20 @@
       <c r="BK5" s="25"/>
       <c r="BL5" s="25"/>
       <c r="BM5" s="25"/>
-      <c r="BN5" s="158"/>
+      <c r="BN5" s="65"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="63">
+      <c r="A6" s="72">
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="69"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="40"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -3609,7 +3615,7 @@
       <c r="AF6" s="16"/>
       <c r="AG6" s="22"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="159"/>
+      <c r="AI6" s="66"/>
       <c r="AJ6" s="40"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
@@ -3640,14 +3646,14 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="159"/>
+      <c r="BN6" s="66"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="64"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="38"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="70"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="56"/>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
@@ -3677,7 +3683,7 @@
       <c r="AF7" s="46"/>
       <c r="AG7" s="47"/>
       <c r="AH7" s="45"/>
-      <c r="AI7" s="160"/>
+      <c r="AI7" s="67"/>
       <c r="AJ7" s="56"/>
       <c r="AK7" s="45"/>
       <c r="AL7" s="45"/>
@@ -3708,20 +3714,20 @@
       <c r="BK7" s="45"/>
       <c r="BL7" s="45"/>
       <c r="BM7" s="45"/>
-      <c r="BN7" s="160"/>
+      <c r="BN7" s="67"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="63">
+      <c r="A8" s="72">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="40"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3751,7 +3757,7 @@
       <c r="AF8" s="16"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="159"/>
+      <c r="AI8" s="66"/>
       <c r="AJ8" s="40"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
@@ -3782,14 +3788,14 @@
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
       <c r="BM8" s="7"/>
-      <c r="BN8" s="159"/>
+      <c r="BN8" s="66"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="64"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="70"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="56"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
@@ -3819,7 +3825,7 @@
       <c r="AF9" s="46"/>
       <c r="AG9" s="47"/>
       <c r="AH9" s="45"/>
-      <c r="AI9" s="160"/>
+      <c r="AI9" s="67"/>
       <c r="AJ9" s="56"/>
       <c r="AK9" s="45"/>
       <c r="AL9" s="45"/>
@@ -3850,20 +3856,20 @@
       <c r="BK9" s="45"/>
       <c r="BL9" s="45"/>
       <c r="BM9" s="45"/>
-      <c r="BN9" s="160"/>
+      <c r="BN9" s="67"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="63">
+      <c r="A10" s="72">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="40"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3893,7 +3899,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="159"/>
+      <c r="AI10" s="66"/>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
@@ -3924,14 +3930,14 @@
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
-      <c r="BN10" s="159"/>
+      <c r="BN10" s="66"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="64"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="70"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="56"/>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
@@ -3961,7 +3967,7 @@
       <c r="AF11" s="46"/>
       <c r="AG11" s="47"/>
       <c r="AH11" s="45"/>
-      <c r="AI11" s="160"/>
+      <c r="AI11" s="67"/>
       <c r="AJ11" s="56"/>
       <c r="AK11" s="45"/>
       <c r="AL11" s="45"/>
@@ -3992,20 +3998,20 @@
       <c r="BK11" s="45"/>
       <c r="BL11" s="45"/>
       <c r="BM11" s="45"/>
-      <c r="BN11" s="160"/>
+      <c r="BN11" s="67"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="63">
+      <c r="A12" s="72">
         <v>5</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="40"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -4035,7 +4041,7 @@
       <c r="AF12" s="16"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="159"/>
+      <c r="AI12" s="66"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
@@ -4066,14 +4072,14 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="159"/>
+      <c r="BN12" s="66"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="64"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="56"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -4103,7 +4109,7 @@
       <c r="AF13" s="46"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="45"/>
-      <c r="AI13" s="160"/>
+      <c r="AI13" s="67"/>
       <c r="AJ13" s="56"/>
       <c r="AK13" s="45"/>
       <c r="AL13" s="45"/>
@@ -4134,20 +4140,20 @@
       <c r="BK13" s="45"/>
       <c r="BL13" s="45"/>
       <c r="BM13" s="45"/>
-      <c r="BN13" s="160"/>
+      <c r="BN13" s="67"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="63">
+      <c r="A14" s="72">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="69"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="40"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -4177,7 +4183,7 @@
       <c r="AF14" s="16"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="159"/>
+      <c r="AI14" s="66"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
@@ -4208,14 +4214,14 @@
       <c r="BK14" s="7"/>
       <c r="BL14" s="7"/>
       <c r="BM14" s="7"/>
-      <c r="BN14" s="159"/>
+      <c r="BN14" s="66"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="64"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="55"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -4245,7 +4251,7 @@
       <c r="AF15" s="26"/>
       <c r="AG15" s="27"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="158"/>
+      <c r="AI15" s="65"/>
       <c r="AJ15" s="55"/>
       <c r="AK15" s="25"/>
       <c r="AL15" s="25"/>
@@ -4276,18 +4282,18 @@
       <c r="BK15" s="25"/>
       <c r="BL15" s="25"/>
       <c r="BM15" s="25"/>
-      <c r="BN15" s="158"/>
+      <c r="BN15" s="65"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="63">
+      <c r="A16" s="72">
         <v>7</v>
       </c>
       <c r="B16" s="37"/>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="100"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="54"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4317,7 +4323,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="20"/>
       <c r="AH16" s="8"/>
-      <c r="AI16" s="161"/>
+      <c r="AI16" s="68"/>
       <c r="AJ16" s="54"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
@@ -4348,14 +4354,14 @@
       <c r="BK16" s="8"/>
       <c r="BL16" s="8"/>
       <c r="BM16" s="8"/>
-      <c r="BN16" s="161"/>
+      <c r="BN16" s="68"/>
     </row>
     <row r="17" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="64"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="55"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -4385,7 +4391,7 @@
       <c r="AF17" s="26"/>
       <c r="AG17" s="27"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="158"/>
+      <c r="AI17" s="65"/>
       <c r="AJ17" s="55"/>
       <c r="AK17" s="25"/>
       <c r="AL17" s="25"/>
@@ -4416,18 +4422,18 @@
       <c r="BK17" s="25"/>
       <c r="BL17" s="25"/>
       <c r="BM17" s="25"/>
-      <c r="BN17" s="158"/>
+      <c r="BN17" s="65"/>
     </row>
     <row r="18" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="63">
+      <c r="A18" s="72">
         <v>8</v>
       </c>
       <c r="B18" s="37"/>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="100"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="55"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -4457,7 +4463,7 @@
       <c r="AF18" s="26"/>
       <c r="AG18" s="27"/>
       <c r="AH18" s="25"/>
-      <c r="AI18" s="158"/>
+      <c r="AI18" s="65"/>
       <c r="AJ18" s="55"/>
       <c r="AK18" s="25"/>
       <c r="AL18" s="25"/>
@@ -4488,14 +4494,14 @@
       <c r="BK18" s="25"/>
       <c r="BL18" s="25"/>
       <c r="BM18" s="25"/>
-      <c r="BN18" s="158"/>
+      <c r="BN18" s="65"/>
     </row>
     <row r="19" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="64"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="70"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="57"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -4525,7 +4531,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="24"/>
       <c r="AH19" s="9"/>
-      <c r="AI19" s="162"/>
+      <c r="AI19" s="69"/>
       <c r="AJ19" s="57"/>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
@@ -4556,20 +4562,20 @@
       <c r="BK19" s="9"/>
       <c r="BL19" s="9"/>
       <c r="BM19" s="9"/>
-      <c r="BN19" s="162"/>
+      <c r="BN19" s="69"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="63">
+      <c r="A20" s="72">
         <v>9</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="69"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="40"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -4599,7 +4605,7 @@
       <c r="AF20" s="16"/>
       <c r="AG20" s="22"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="159"/>
+      <c r="AI20" s="66"/>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
@@ -4630,14 +4636,14 @@
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
       <c r="BM20" s="7"/>
-      <c r="BN20" s="159"/>
+      <c r="BN20" s="66"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="64"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="54"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -4667,7 +4673,7 @@
       <c r="AF21" s="14"/>
       <c r="AG21" s="20"/>
       <c r="AH21" s="8"/>
-      <c r="AI21" s="161"/>
+      <c r="AI21" s="68"/>
       <c r="AJ21" s="54"/>
       <c r="AK21" s="8"/>
       <c r="AL21" s="8"/>
@@ -4698,18 +4704,18 @@
       <c r="BK21" s="8"/>
       <c r="BL21" s="8"/>
       <c r="BM21" s="8"/>
-      <c r="BN21" s="161"/>
+      <c r="BN21" s="68"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="63">
+      <c r="A22" s="72">
         <v>10</v>
       </c>
       <c r="B22" s="37"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="100"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="54"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -4739,7 +4745,7 @@
       <c r="AF22" s="14"/>
       <c r="AG22" s="20"/>
       <c r="AH22" s="8"/>
-      <c r="AI22" s="161"/>
+      <c r="AI22" s="68"/>
       <c r="AJ22" s="54"/>
       <c r="AK22" s="8"/>
       <c r="AL22" s="8"/>
@@ -4770,14 +4776,14 @@
       <c r="BK22" s="8"/>
       <c r="BL22" s="8"/>
       <c r="BM22" s="8"/>
-      <c r="BN22" s="161"/>
+      <c r="BN22" s="68"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="64"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="99"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="54"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4807,7 +4813,7 @@
       <c r="AF23" s="14"/>
       <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="161"/>
+      <c r="AI23" s="68"/>
       <c r="AJ23" s="54"/>
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
@@ -4838,18 +4844,18 @@
       <c r="BK23" s="8"/>
       <c r="BL23" s="8"/>
       <c r="BM23" s="8"/>
-      <c r="BN23" s="161"/>
+      <c r="BN23" s="68"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="63">
+      <c r="A24" s="72">
         <v>11</v>
       </c>
       <c r="B24" s="37"/>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="100"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="55"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -4879,7 +4885,7 @@
       <c r="AF24" s="26"/>
       <c r="AG24" s="27"/>
       <c r="AH24" s="25"/>
-      <c r="AI24" s="158"/>
+      <c r="AI24" s="65"/>
       <c r="AJ24" s="55"/>
       <c r="AK24" s="25"/>
       <c r="AL24" s="25"/>
@@ -4910,14 +4916,14 @@
       <c r="BK24" s="25"/>
       <c r="BL24" s="25"/>
       <c r="BM24" s="25"/>
-      <c r="BN24" s="158"/>
+      <c r="BN24" s="65"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="64"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="70"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="57"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -4947,7 +4953,7 @@
       <c r="AF25" s="18"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="9"/>
-      <c r="AI25" s="162"/>
+      <c r="AI25" s="69"/>
       <c r="AJ25" s="57"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
@@ -4978,20 +4984,20 @@
       <c r="BK25" s="9"/>
       <c r="BL25" s="9"/>
       <c r="BM25" s="9"/>
-      <c r="BN25" s="162"/>
+      <c r="BN25" s="69"/>
     </row>
     <row r="26" spans="1:67" ht="12" customHeight="1">
-      <c r="A26" s="63">
+      <c r="A26" s="72">
         <v>12</v>
       </c>
       <c r="B26" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="107"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="40"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -5021,7 +5027,7 @@
       <c r="AF26" s="16"/>
       <c r="AG26" s="22"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="159"/>
+      <c r="AI26" s="66"/>
       <c r="AJ26" s="40"/>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
@@ -5052,15 +5058,15 @@
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
       <c r="BM26" s="7"/>
-      <c r="BN26" s="159"/>
+      <c r="BN26" s="66"/>
       <c r="BO26" s="3"/>
     </row>
     <row r="27" spans="1:67" ht="12" customHeight="1">
-      <c r="A27" s="64"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="108"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="54"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -5090,7 +5096,7 @@
       <c r="AF27" s="14"/>
       <c r="AG27" s="20"/>
       <c r="AH27" s="8"/>
-      <c r="AI27" s="161"/>
+      <c r="AI27" s="68"/>
       <c r="AJ27" s="54"/>
       <c r="AK27" s="8"/>
       <c r="AL27" s="8"/>
@@ -5121,19 +5127,19 @@
       <c r="BK27" s="8"/>
       <c r="BL27" s="8"/>
       <c r="BM27" s="8"/>
-      <c r="BN27" s="161"/>
+      <c r="BN27" s="68"/>
       <c r="BO27" s="3"/>
     </row>
     <row r="28" spans="1:67" ht="12" customHeight="1">
-      <c r="A28" s="63">
+      <c r="A28" s="72">
         <v>13</v>
       </c>
       <c r="B28" s="35"/>
-      <c r="C28" s="105" t="s">
+      <c r="C28" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="54"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -5163,7 +5169,7 @@
       <c r="AF28" s="14"/>
       <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="161"/>
+      <c r="AI28" s="68"/>
       <c r="AJ28" s="54"/>
       <c r="AK28" s="8"/>
       <c r="AL28" s="8"/>
@@ -5194,15 +5200,15 @@
       <c r="BK28" s="8"/>
       <c r="BL28" s="8"/>
       <c r="BM28" s="8"/>
-      <c r="BN28" s="161"/>
+      <c r="BN28" s="68"/>
       <c r="BO28" s="3"/>
     </row>
     <row r="29" spans="1:67" ht="12" customHeight="1">
-      <c r="A29" s="64"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
       <c r="F29" s="57"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -5232,7 +5238,7 @@
       <c r="AF29" s="18"/>
       <c r="AG29" s="24"/>
       <c r="AH29" s="9"/>
-      <c r="AI29" s="162"/>
+      <c r="AI29" s="69"/>
       <c r="AJ29" s="57"/>
       <c r="AK29" s="9"/>
       <c r="AL29" s="9"/>
@@ -5263,21 +5269,21 @@
       <c r="BK29" s="9"/>
       <c r="BL29" s="9"/>
       <c r="BM29" s="9"/>
-      <c r="BN29" s="162"/>
+      <c r="BN29" s="69"/>
       <c r="BO29" s="3"/>
     </row>
     <row r="30" spans="1:67" ht="12" customHeight="1">
-      <c r="A30" s="63">
+      <c r="A30" s="72">
         <v>14</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="117"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="40"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -5307,7 +5313,7 @@
       <c r="AF30" s="16"/>
       <c r="AG30" s="22"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="159"/>
+      <c r="AI30" s="66"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
@@ -5338,15 +5344,15 @@
       <c r="BK30" s="7"/>
       <c r="BL30" s="7"/>
       <c r="BM30" s="7"/>
-      <c r="BN30" s="159"/>
+      <c r="BN30" s="66"/>
       <c r="BO30" s="3"/>
     </row>
     <row r="31" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="118"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="41"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -5376,7 +5382,7 @@
       <c r="AF31" s="15"/>
       <c r="AG31" s="21"/>
       <c r="AH31" s="12"/>
-      <c r="AI31" s="163"/>
+      <c r="AI31" s="70"/>
       <c r="AJ31" s="41"/>
       <c r="AK31" s="12"/>
       <c r="AL31" s="12"/>
@@ -5407,7 +5413,7 @@
       <c r="BK31" s="12"/>
       <c r="BL31" s="12"/>
       <c r="BM31" s="12"/>
-      <c r="BN31" s="163"/>
+      <c r="BN31" s="70"/>
       <c r="BO31" s="3"/>
     </row>
     <row r="32" spans="1:67">
@@ -5430,6 +5436,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F1:AI1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:D31"/>
@@ -5446,39 +5485,6 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -5509,104 +5515,104 @@
       <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="4" customWidth="1"/>
-    <col min="6" max="66" width="3.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="4" customWidth="1"/>
+    <col min="6" max="66" width="3.109375" style="4" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="71">
+      <c r="F1" s="82">
         <v>45901</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="71">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="82">
         <v>45931</v>
       </c>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="72"/>
-      <c r="BN1" s="164"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="83"/>
+      <c r="BB1" s="83"/>
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="83"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="83"/>
+      <c r="BJ1" s="83"/>
+      <c r="BK1" s="83"/>
+      <c r="BL1" s="83"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="71"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="49">
         <v>42156</v>
       </c>
@@ -5793,93 +5799,93 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="156" t="s">
+      <c r="G3" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="63" t="s">
         <v>62</v>
       </c>
       <c r="J3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="156" t="s">
+      <c r="K3" s="63" t="s">
         <v>64</v>
       </c>
       <c r="L3" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="156" t="s">
+      <c r="M3" s="63" t="s">
         <v>66</v>
       </c>
       <c r="N3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="156" t="s">
+      <c r="O3" s="63" t="s">
         <v>61</v>
       </c>
       <c r="P3" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="156" t="s">
+      <c r="Q3" s="63" t="s">
         <v>63</v>
       </c>
       <c r="R3" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="156" t="s">
+      <c r="S3" s="63" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="156" t="s">
+      <c r="U3" s="63" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="156" t="s">
+      <c r="W3" s="63" t="s">
         <v>62</v>
       </c>
       <c r="X3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="156" t="s">
+      <c r="Y3" s="63" t="s">
         <v>64</v>
       </c>
       <c r="Z3" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="156" t="s">
+      <c r="AA3" s="63" t="s">
         <v>66</v>
       </c>
       <c r="AB3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="AC3" s="156" t="s">
+      <c r="AC3" s="63" t="s">
         <v>61</v>
       </c>
       <c r="AD3" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="156" t="s">
+      <c r="AE3" s="63" t="s">
         <v>63</v>
       </c>
       <c r="AF3" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="156" t="s">
+      <c r="AG3" s="63" t="s">
         <v>65</v>
       </c>
       <c r="AH3" s="60" t="s">
@@ -5891,91 +5897,91 @@
       <c r="AJ3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" s="156" t="s">
+      <c r="AK3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="AL3" s="156" t="s">
+      <c r="AL3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" s="156" t="s">
+      <c r="AM3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" s="156" t="s">
+      <c r="AN3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AO3" s="156" t="s">
+      <c r="AO3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="AP3" s="156" t="s">
+      <c r="AP3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="AQ3" s="156" t="s">
+      <c r="AQ3" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AR3" s="156" t="s">
+      <c r="AR3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="AS3" s="156" t="s">
+      <c r="AS3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="AT3" s="156" t="s">
+      <c r="AT3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="AU3" s="156" t="s">
+      <c r="AU3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AV3" s="156" t="s">
+      <c r="AV3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="AW3" s="156" t="s">
+      <c r="AW3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="AX3" s="156" t="s">
+      <c r="AX3" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AY3" s="156" t="s">
+      <c r="AY3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="AZ3" s="156" t="s">
+      <c r="AZ3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="BA3" s="156" t="s">
+      <c r="BA3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="BB3" s="156" t="s">
+      <c r="BB3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="BC3" s="156" t="s">
+      <c r="BC3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="BD3" s="156" t="s">
+      <c r="BD3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="BE3" s="156" t="s">
+      <c r="BE3" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="BF3" s="156" t="s">
+      <c r="BF3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="BG3" s="156" t="s">
+      <c r="BG3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="BH3" s="156" t="s">
+      <c r="BH3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="BI3" s="156" t="s">
+      <c r="BI3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="BJ3" s="156" t="s">
+      <c r="BJ3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="BK3" s="156" t="s">
+      <c r="BK3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="BL3" s="156" t="s">
+      <c r="BL3" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="BM3" s="156" t="s">
+      <c r="BM3" s="63" t="s">
         <v>61</v>
       </c>
       <c r="BN3" s="59" t="s">
@@ -5984,17 +5990,17 @@
       <c r="BO3" s="48"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="63">
+      <c r="A4" s="72">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="53"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -6024,7 +6030,7 @@
       <c r="AF4" s="17"/>
       <c r="AG4" s="23"/>
       <c r="AH4" s="10"/>
-      <c r="AI4" s="157"/>
+      <c r="AI4" s="64"/>
       <c r="AJ4" s="53"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
@@ -6055,14 +6061,14 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="157"/>
+      <c r="BN4" s="64"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="94"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="55"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -6092,7 +6098,7 @@
       <c r="AF5" s="26"/>
       <c r="AG5" s="27"/>
       <c r="AH5" s="25"/>
-      <c r="AI5" s="158"/>
+      <c r="AI5" s="65"/>
       <c r="AJ5" s="55"/>
       <c r="AK5" s="25"/>
       <c r="AL5" s="25"/>
@@ -6123,20 +6129,20 @@
       <c r="BK5" s="25"/>
       <c r="BL5" s="25"/>
       <c r="BM5" s="25"/>
-      <c r="BN5" s="158"/>
+      <c r="BN5" s="65"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="63">
+      <c r="A6" s="72">
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="69"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="40"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -6166,7 +6172,7 @@
       <c r="AF6" s="16"/>
       <c r="AG6" s="22"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="159"/>
+      <c r="AI6" s="66"/>
       <c r="AJ6" s="40"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
@@ -6197,14 +6203,14 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="159"/>
+      <c r="BN6" s="66"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="64"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="38"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="70"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="56"/>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
@@ -6234,7 +6240,7 @@
       <c r="AF7" s="46"/>
       <c r="AG7" s="47"/>
       <c r="AH7" s="45"/>
-      <c r="AI7" s="160"/>
+      <c r="AI7" s="67"/>
       <c r="AJ7" s="56"/>
       <c r="AK7" s="45"/>
       <c r="AL7" s="45"/>
@@ -6265,20 +6271,20 @@
       <c r="BK7" s="45"/>
       <c r="BL7" s="45"/>
       <c r="BM7" s="45"/>
-      <c r="BN7" s="160"/>
+      <c r="BN7" s="67"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="63">
+      <c r="A8" s="72">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="40"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6308,7 +6314,7 @@
       <c r="AF8" s="16"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="159"/>
+      <c r="AI8" s="66"/>
       <c r="AJ8" s="40"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
@@ -6339,14 +6345,14 @@
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
       <c r="BM8" s="7"/>
-      <c r="BN8" s="159"/>
+      <c r="BN8" s="66"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="64"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="70"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="56"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
@@ -6376,7 +6382,7 @@
       <c r="AF9" s="46"/>
       <c r="AG9" s="47"/>
       <c r="AH9" s="45"/>
-      <c r="AI9" s="160"/>
+      <c r="AI9" s="67"/>
       <c r="AJ9" s="56"/>
       <c r="AK9" s="45"/>
       <c r="AL9" s="45"/>
@@ -6407,20 +6413,20 @@
       <c r="BK9" s="45"/>
       <c r="BL9" s="45"/>
       <c r="BM9" s="45"/>
-      <c r="BN9" s="160"/>
+      <c r="BN9" s="67"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="63">
+      <c r="A10" s="72">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="40"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -6450,7 +6456,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="159"/>
+      <c r="AI10" s="66"/>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
@@ -6481,14 +6487,14 @@
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
-      <c r="BN10" s="159"/>
+      <c r="BN10" s="66"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="64"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="70"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="56"/>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
@@ -6518,7 +6524,7 @@
       <c r="AF11" s="46"/>
       <c r="AG11" s="47"/>
       <c r="AH11" s="45"/>
-      <c r="AI11" s="160"/>
+      <c r="AI11" s="67"/>
       <c r="AJ11" s="56"/>
       <c r="AK11" s="45"/>
       <c r="AL11" s="45"/>
@@ -6549,20 +6555,20 @@
       <c r="BK11" s="45"/>
       <c r="BL11" s="45"/>
       <c r="BM11" s="45"/>
-      <c r="BN11" s="160"/>
+      <c r="BN11" s="67"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="63">
+      <c r="A12" s="72">
         <v>5</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="40"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -6592,7 +6598,7 @@
       <c r="AF12" s="16"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="159"/>
+      <c r="AI12" s="66"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
@@ -6623,14 +6629,14 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="159"/>
+      <c r="BN12" s="66"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="64"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="56"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -6660,7 +6666,7 @@
       <c r="AF13" s="46"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="45"/>
-      <c r="AI13" s="160"/>
+      <c r="AI13" s="67"/>
       <c r="AJ13" s="56"/>
       <c r="AK13" s="45"/>
       <c r="AL13" s="45"/>
@@ -6691,20 +6697,20 @@
       <c r="BK13" s="45"/>
       <c r="BL13" s="45"/>
       <c r="BM13" s="45"/>
-      <c r="BN13" s="160"/>
+      <c r="BN13" s="67"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="63">
+      <c r="A14" s="72">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="69"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="40"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -6734,7 +6740,7 @@
       <c r="AF14" s="16"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="159"/>
+      <c r="AI14" s="66"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
@@ -6765,14 +6771,14 @@
       <c r="BK14" s="7"/>
       <c r="BL14" s="7"/>
       <c r="BM14" s="7"/>
-      <c r="BN14" s="159"/>
+      <c r="BN14" s="66"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="64"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="55"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -6802,7 +6808,7 @@
       <c r="AF15" s="26"/>
       <c r="AG15" s="27"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="158"/>
+      <c r="AI15" s="65"/>
       <c r="AJ15" s="55"/>
       <c r="AK15" s="25"/>
       <c r="AL15" s="25"/>
@@ -6833,18 +6839,18 @@
       <c r="BK15" s="25"/>
       <c r="BL15" s="25"/>
       <c r="BM15" s="25"/>
-      <c r="BN15" s="158"/>
+      <c r="BN15" s="65"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="63">
+      <c r="A16" s="72">
         <v>7</v>
       </c>
       <c r="B16" s="37"/>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="100"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="54"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -6874,7 +6880,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="20"/>
       <c r="AH16" s="8"/>
-      <c r="AI16" s="161"/>
+      <c r="AI16" s="68"/>
       <c r="AJ16" s="54"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
@@ -6905,14 +6911,14 @@
       <c r="BK16" s="8"/>
       <c r="BL16" s="8"/>
       <c r="BM16" s="8"/>
-      <c r="BN16" s="161"/>
+      <c r="BN16" s="68"/>
     </row>
     <row r="17" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="64"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="55"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -6942,7 +6948,7 @@
       <c r="AF17" s="26"/>
       <c r="AG17" s="27"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="158"/>
+      <c r="AI17" s="65"/>
       <c r="AJ17" s="55"/>
       <c r="AK17" s="25"/>
       <c r="AL17" s="25"/>
@@ -6973,18 +6979,18 @@
       <c r="BK17" s="25"/>
       <c r="BL17" s="25"/>
       <c r="BM17" s="25"/>
-      <c r="BN17" s="158"/>
+      <c r="BN17" s="65"/>
     </row>
     <row r="18" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="63">
+      <c r="A18" s="72">
         <v>8</v>
       </c>
       <c r="B18" s="37"/>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="100"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="55"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -7014,7 +7020,7 @@
       <c r="AF18" s="26"/>
       <c r="AG18" s="27"/>
       <c r="AH18" s="25"/>
-      <c r="AI18" s="158"/>
+      <c r="AI18" s="65"/>
       <c r="AJ18" s="55"/>
       <c r="AK18" s="25"/>
       <c r="AL18" s="25"/>
@@ -7045,14 +7051,14 @@
       <c r="BK18" s="25"/>
       <c r="BL18" s="25"/>
       <c r="BM18" s="25"/>
-      <c r="BN18" s="158"/>
+      <c r="BN18" s="65"/>
     </row>
     <row r="19" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="64"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="70"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="57"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -7082,7 +7088,7 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="24"/>
       <c r="AH19" s="9"/>
-      <c r="AI19" s="162"/>
+      <c r="AI19" s="69"/>
       <c r="AJ19" s="57"/>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
@@ -7113,20 +7119,20 @@
       <c r="BK19" s="9"/>
       <c r="BL19" s="9"/>
       <c r="BM19" s="9"/>
-      <c r="BN19" s="162"/>
+      <c r="BN19" s="69"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="63">
+      <c r="A20" s="72">
         <v>9</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="69"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="40"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -7156,7 +7162,7 @@
       <c r="AF20" s="16"/>
       <c r="AG20" s="22"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="159"/>
+      <c r="AI20" s="66"/>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
@@ -7187,14 +7193,14 @@
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
       <c r="BM20" s="7"/>
-      <c r="BN20" s="159"/>
+      <c r="BN20" s="66"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="64"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="54"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -7224,7 +7230,7 @@
       <c r="AF21" s="14"/>
       <c r="AG21" s="20"/>
       <c r="AH21" s="8"/>
-      <c r="AI21" s="161"/>
+      <c r="AI21" s="68"/>
       <c r="AJ21" s="54"/>
       <c r="AK21" s="8"/>
       <c r="AL21" s="8"/>
@@ -7255,18 +7261,18 @@
       <c r="BK21" s="8"/>
       <c r="BL21" s="8"/>
       <c r="BM21" s="8"/>
-      <c r="BN21" s="161"/>
+      <c r="BN21" s="68"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="63">
+      <c r="A22" s="72">
         <v>10</v>
       </c>
       <c r="B22" s="37"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="100"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="54"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -7296,7 +7302,7 @@
       <c r="AF22" s="14"/>
       <c r="AG22" s="20"/>
       <c r="AH22" s="8"/>
-      <c r="AI22" s="161"/>
+      <c r="AI22" s="68"/>
       <c r="AJ22" s="54"/>
       <c r="AK22" s="8"/>
       <c r="AL22" s="8"/>
@@ -7327,14 +7333,14 @@
       <c r="BK22" s="8"/>
       <c r="BL22" s="8"/>
       <c r="BM22" s="8"/>
-      <c r="BN22" s="161"/>
+      <c r="BN22" s="68"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="64"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="99"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="54"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -7364,7 +7370,7 @@
       <c r="AF23" s="14"/>
       <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="161"/>
+      <c r="AI23" s="68"/>
       <c r="AJ23" s="54"/>
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
@@ -7395,18 +7401,18 @@
       <c r="BK23" s="8"/>
       <c r="BL23" s="8"/>
       <c r="BM23" s="8"/>
-      <c r="BN23" s="161"/>
+      <c r="BN23" s="68"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="63">
+      <c r="A24" s="72">
         <v>11</v>
       </c>
       <c r="B24" s="37"/>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="100"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="55"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -7436,7 +7442,7 @@
       <c r="AF24" s="26"/>
       <c r="AG24" s="27"/>
       <c r="AH24" s="25"/>
-      <c r="AI24" s="158"/>
+      <c r="AI24" s="65"/>
       <c r="AJ24" s="55"/>
       <c r="AK24" s="25"/>
       <c r="AL24" s="25"/>
@@ -7467,14 +7473,14 @@
       <c r="BK24" s="25"/>
       <c r="BL24" s="25"/>
       <c r="BM24" s="25"/>
-      <c r="BN24" s="158"/>
+      <c r="BN24" s="65"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="64"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="70"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="57"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -7504,7 +7510,7 @@
       <c r="AF25" s="18"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="9"/>
-      <c r="AI25" s="162"/>
+      <c r="AI25" s="69"/>
       <c r="AJ25" s="57"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
@@ -7535,20 +7541,20 @@
       <c r="BK25" s="9"/>
       <c r="BL25" s="9"/>
       <c r="BM25" s="9"/>
-      <c r="BN25" s="162"/>
+      <c r="BN25" s="69"/>
     </row>
     <row r="26" spans="1:67" ht="12" customHeight="1">
-      <c r="A26" s="63">
+      <c r="A26" s="72">
         <v>12</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="107"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="40"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -7578,7 +7584,7 @@
       <c r="AF26" s="16"/>
       <c r="AG26" s="22"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="159"/>
+      <c r="AI26" s="66"/>
       <c r="AJ26" s="40"/>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
@@ -7609,15 +7615,15 @@
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
       <c r="BM26" s="7"/>
-      <c r="BN26" s="159"/>
+      <c r="BN26" s="66"/>
       <c r="BO26" s="3"/>
     </row>
     <row r="27" spans="1:67" ht="12" customHeight="1">
-      <c r="A27" s="64"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="108"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="54"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -7647,7 +7653,7 @@
       <c r="AF27" s="14"/>
       <c r="AG27" s="20"/>
       <c r="AH27" s="8"/>
-      <c r="AI27" s="161"/>
+      <c r="AI27" s="68"/>
       <c r="AJ27" s="54"/>
       <c r="AK27" s="8"/>
       <c r="AL27" s="8"/>
@@ -7678,19 +7684,19 @@
       <c r="BK27" s="8"/>
       <c r="BL27" s="8"/>
       <c r="BM27" s="8"/>
-      <c r="BN27" s="161"/>
+      <c r="BN27" s="68"/>
       <c r="BO27" s="3"/>
     </row>
     <row r="28" spans="1:67" ht="12" customHeight="1">
-      <c r="A28" s="63">
+      <c r="A28" s="72">
         <v>13</v>
       </c>
       <c r="B28" s="35"/>
-      <c r="C28" s="105" t="s">
+      <c r="C28" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="54"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -7720,7 +7726,7 @@
       <c r="AF28" s="14"/>
       <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="161"/>
+      <c r="AI28" s="68"/>
       <c r="AJ28" s="54"/>
       <c r="AK28" s="8"/>
       <c r="AL28" s="8"/>
@@ -7751,15 +7757,15 @@
       <c r="BK28" s="8"/>
       <c r="BL28" s="8"/>
       <c r="BM28" s="8"/>
-      <c r="BN28" s="161"/>
+      <c r="BN28" s="68"/>
       <c r="BO28" s="3"/>
     </row>
     <row r="29" spans="1:67" ht="12" customHeight="1">
-      <c r="A29" s="64"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
       <c r="F29" s="57"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -7789,7 +7795,7 @@
       <c r="AF29" s="18"/>
       <c r="AG29" s="24"/>
       <c r="AH29" s="9"/>
-      <c r="AI29" s="162"/>
+      <c r="AI29" s="69"/>
       <c r="AJ29" s="57"/>
       <c r="AK29" s="9"/>
       <c r="AL29" s="9"/>
@@ -7820,21 +7826,21 @@
       <c r="BK29" s="9"/>
       <c r="BL29" s="9"/>
       <c r="BM29" s="9"/>
-      <c r="BN29" s="162"/>
+      <c r="BN29" s="69"/>
       <c r="BO29" s="3"/>
     </row>
     <row r="30" spans="1:67" ht="12" customHeight="1">
-      <c r="A30" s="63">
+      <c r="A30" s="72">
         <v>14</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="117"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="40"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -7864,7 +7870,7 @@
       <c r="AF30" s="16"/>
       <c r="AG30" s="22"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="159"/>
+      <c r="AI30" s="66"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
@@ -7895,15 +7901,15 @@
       <c r="BK30" s="7"/>
       <c r="BL30" s="7"/>
       <c r="BM30" s="7"/>
-      <c r="BN30" s="159"/>
+      <c r="BN30" s="66"/>
       <c r="BO30" s="3"/>
     </row>
     <row r="31" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="118"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="41"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -7933,7 +7939,7 @@
       <c r="AF31" s="15"/>
       <c r="AG31" s="21"/>
       <c r="AH31" s="12"/>
-      <c r="AI31" s="163"/>
+      <c r="AI31" s="70"/>
       <c r="AJ31" s="41"/>
       <c r="AK31" s="12"/>
       <c r="AL31" s="12"/>
@@ -7964,7 +7970,7 @@
       <c r="BK31" s="12"/>
       <c r="BL31" s="12"/>
       <c r="BM31" s="12"/>
-      <c r="BN31" s="163"/>
+      <c r="BN31" s="70"/>
       <c r="BO31" s="3"/>
     </row>
     <row r="32" spans="1:67">
@@ -7987,6 +7993,48 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AJ1:BM1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:AI1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="E28:E29"/>
@@ -7994,48 +8042,6 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:D31"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="AJ1:BM1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -8066,76 +8072,76 @@
       <selection pane="bottomRight" activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="4" customWidth="1"/>
-    <col min="7" max="36" width="3.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="4" customWidth="1"/>
+    <col min="7" max="36" width="3.109375" style="4" customWidth="1"/>
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="119" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="71">
+      <c r="G1" s="82">
         <v>45078</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="73"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="101"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="87"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="49">
         <v>42156</v>
       </c>
@@ -8229,12 +8235,12 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="88"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="116"/>
       <c r="G3" s="51" t="s">
         <v>37</v>
       </c>
@@ -8328,20 +8334,20 @@
       <c r="AK3" s="48"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="125">
+      <c r="A4" s="152">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="128" t="s">
+      <c r="D4" s="154"/>
+      <c r="E4" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="130"/>
+      <c r="F4" s="157"/>
       <c r="G4" s="52"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -8370,20 +8376,20 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="122" t="s">
+      <c r="AI4" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AJ4" s="122" t="s">
+      <c r="AJ4" s="147" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="131"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="158"/>
       <c r="G5" s="53"/>
       <c r="H5" s="10"/>
       <c r="I5" s="17"/>
@@ -8412,22 +8418,22 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="101"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
     </row>
     <row r="6" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="63">
+      <c r="A6" s="72">
         <v>2</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="123" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="93"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="54"/>
       <c r="H6" s="8"/>
       <c r="I6" s="14"/>
@@ -8456,16 +8462,16 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-      <c r="AI6" s="101"/>
-      <c r="AJ6" s="101"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="148"/>
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="64"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="94"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="55"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
@@ -8494,24 +8500,24 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="101"/>
+      <c r="AI7" s="148"/>
+      <c r="AJ7" s="148"/>
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="132">
+      <c r="A8" s="129">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="134" t="s">
+      <c r="D8" s="98"/>
+      <c r="E8" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="40"/>
       <c r="H8" s="7"/>
       <c r="I8" s="16"/>
@@ -8540,16 +8546,16 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="148"/>
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="133"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="70"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="56"/>
       <c r="H9" s="45"/>
       <c r="I9" s="46"/>
@@ -8578,24 +8584,24 @@
       <c r="AF9" s="45"/>
       <c r="AG9" s="45"/>
       <c r="AH9" s="45"/>
-      <c r="AI9" s="101"/>
-      <c r="AJ9" s="101"/>
+      <c r="AI9" s="148"/>
+      <c r="AJ9" s="148"/>
     </row>
     <row r="10" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="136">
+      <c r="A10" s="137">
         <v>4</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="143"/>
+      <c r="F10" s="142"/>
       <c r="G10" s="53"/>
       <c r="H10" s="10"/>
       <c r="I10" s="17"/>
@@ -8624,16 +8630,16 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="101"/>
-      <c r="AJ10" s="101"/>
+      <c r="AI10" s="148"/>
+      <c r="AJ10" s="148"/>
     </row>
     <row r="11" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="133"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="37"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="99"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="53"/>
       <c r="H11" s="10"/>
       <c r="I11" s="17"/>
@@ -8662,22 +8668,22 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="101"/>
-      <c r="AJ11" s="101"/>
+      <c r="AI11" s="148"/>
+      <c r="AJ11" s="148"/>
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="132">
+      <c r="A12" s="129">
         <v>5</v>
       </c>
       <c r="B12" s="37"/>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146" t="s">
+      <c r="D12" s="144"/>
+      <c r="E12" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="54"/>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>
@@ -8706,16 +8712,16 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="101"/>
-      <c r="AJ12" s="101"/>
+      <c r="AI12" s="148"/>
+      <c r="AJ12" s="148"/>
     </row>
     <row r="13" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="133"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="99"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="54"/>
       <c r="H13" s="8"/>
       <c r="I13" s="14"/>
@@ -8744,22 +8750,22 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="101"/>
-      <c r="AJ13" s="101"/>
+      <c r="AI13" s="148"/>
+      <c r="AJ13" s="148"/>
     </row>
     <row r="14" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="132">
+      <c r="A14" s="129">
         <v>6</v>
       </c>
       <c r="B14" s="37"/>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="149" t="s">
+      <c r="D14" s="87"/>
+      <c r="E14" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="100"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="54"/>
       <c r="H14" s="8"/>
       <c r="I14" s="14"/>
@@ -8788,16 +8794,16 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="101"/>
-      <c r="AJ14" s="101"/>
+      <c r="AI14" s="148"/>
+      <c r="AJ14" s="148"/>
     </row>
     <row r="15" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="136"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="141"/>
-      <c r="F15" s="143"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="55"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
@@ -8826,24 +8832,24 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="101"/>
-      <c r="AJ15" s="101"/>
+      <c r="AI15" s="148"/>
+      <c r="AJ15" s="148"/>
     </row>
     <row r="16" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="150">
+      <c r="A16" s="135">
         <v>7</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="151" t="s">
+      <c r="D16" s="77"/>
+      <c r="E16" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="69"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="40"/>
       <c r="H16" s="7"/>
       <c r="I16" s="16"/>
@@ -8872,16 +8878,16 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="101"/>
-      <c r="AJ16" s="101"/>
+      <c r="AI16" s="148"/>
+      <c r="AJ16" s="148"/>
     </row>
     <row r="17" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="150"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="99"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="55"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
@@ -8910,22 +8916,22 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="101"/>
-      <c r="AJ17" s="101"/>
+      <c r="AI17" s="148"/>
+      <c r="AJ17" s="148"/>
     </row>
     <row r="18" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="150">
+      <c r="A18" s="135">
         <v>7</v>
       </c>
       <c r="B18" s="37"/>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="146" t="s">
+      <c r="D18" s="87"/>
+      <c r="E18" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="100"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="54"/>
       <c r="H18" s="8"/>
       <c r="I18" s="14"/>
@@ -8954,16 +8960,16 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="101"/>
-      <c r="AJ18" s="101"/>
+      <c r="AI18" s="148"/>
+      <c r="AJ18" s="148"/>
     </row>
     <row r="19" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="150"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="99"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="55"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
@@ -8992,22 +8998,22 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
-      <c r="AI19" s="101"/>
-      <c r="AJ19" s="101"/>
+      <c r="AI19" s="148"/>
+      <c r="AJ19" s="148"/>
     </row>
     <row r="20" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="150">
+      <c r="A20" s="135">
         <v>8</v>
       </c>
       <c r="B20" s="37"/>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="146" t="s">
+      <c r="D20" s="87"/>
+      <c r="E20" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="100"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="55"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
@@ -9036,16 +9042,16 @@
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
-      <c r="AI20" s="101"/>
-      <c r="AJ20" s="101"/>
+      <c r="AI20" s="148"/>
+      <c r="AJ20" s="148"/>
     </row>
     <row r="21" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="150"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="70"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="57"/>
       <c r="H21" s="9"/>
       <c r="I21" s="18"/>
@@ -9074,24 +9080,24 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="101"/>
-      <c r="AJ21" s="101"/>
+      <c r="AI21" s="148"/>
+      <c r="AJ21" s="148"/>
     </row>
     <row r="22" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="132">
+      <c r="A22" s="129">
         <v>9</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="151" t="s">
+      <c r="D22" s="77"/>
+      <c r="E22" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="69"/>
+      <c r="F22" s="92"/>
       <c r="G22" s="40"/>
       <c r="H22" s="7"/>
       <c r="I22" s="16"/>
@@ -9120,16 +9126,16 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="101"/>
-      <c r="AJ22" s="101"/>
+      <c r="AI22" s="148"/>
+      <c r="AJ22" s="148"/>
     </row>
     <row r="23" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="133"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="99"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
@@ -9158,22 +9164,22 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="101"/>
-      <c r="AJ23" s="101"/>
+      <c r="AI23" s="148"/>
+      <c r="AJ23" s="148"/>
     </row>
     <row r="24" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="132">
+      <c r="A24" s="129">
         <v>10</v>
       </c>
       <c r="B24" s="37"/>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="146" t="s">
+      <c r="D24" s="87"/>
+      <c r="E24" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="100"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="54"/>
       <c r="H24" s="8"/>
       <c r="I24" s="14"/>
@@ -9202,16 +9208,16 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="101"/>
+      <c r="AI24" s="148"/>
+      <c r="AJ24" s="148"/>
     </row>
     <row r="25" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="133"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="99"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
@@ -9240,22 +9246,22 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="101"/>
-      <c r="AJ25" s="101"/>
+      <c r="AI25" s="148"/>
+      <c r="AJ25" s="148"/>
     </row>
     <row r="26" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="132">
+      <c r="A26" s="129">
         <v>12</v>
       </c>
       <c r="B26" s="37"/>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="146" t="s">
+      <c r="D26" s="87"/>
+      <c r="E26" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="100"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="55"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
@@ -9284,16 +9290,16 @@
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="101"/>
-      <c r="AJ26" s="101"/>
+      <c r="AI26" s="148"/>
+      <c r="AJ26" s="148"/>
     </row>
     <row r="27" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="133"/>
+      <c r="A27" s="130"/>
       <c r="B27" s="38"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="70"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="57"/>
       <c r="H27" s="9"/>
       <c r="I27" s="18"/>
@@ -9322,24 +9328,24 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
-      <c r="AI27" s="101"/>
-      <c r="AJ27" s="101"/>
+      <c r="AI27" s="148"/>
+      <c r="AJ27" s="148"/>
     </row>
     <row r="28" spans="1:37" ht="12" customHeight="1">
-      <c r="A28" s="63">
+      <c r="A28" s="72">
         <v>13</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="152" t="s">
+      <c r="D28" s="118"/>
+      <c r="E28" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="107"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="40"/>
       <c r="H28" s="7"/>
       <c r="I28" s="16"/>
@@ -9368,17 +9374,17 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="101"/>
-      <c r="AJ28" s="101"/>
+      <c r="AI28" s="148"/>
+      <c r="AJ28" s="148"/>
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="12" customHeight="1">
-      <c r="A29" s="64"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="108"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="54"/>
       <c r="H29" s="8"/>
       <c r="I29" s="14"/>
@@ -9407,23 +9413,23 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="101"/>
-      <c r="AJ29" s="101"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="148"/>
       <c r="AK29" s="3"/>
     </row>
     <row r="30" spans="1:37" ht="12" customHeight="1">
-      <c r="A30" s="63">
+      <c r="A30" s="72">
         <v>14</v>
       </c>
       <c r="B30" s="35"/>
-      <c r="C30" s="105" t="s">
+      <c r="C30" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="106"/>
-      <c r="E30" s="153" t="s">
+      <c r="D30" s="120"/>
+      <c r="E30" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="108"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="54"/>
       <c r="H30" s="8"/>
       <c r="I30" s="14"/>
@@ -9452,17 +9458,17 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="101"/>
-      <c r="AJ30" s="101"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="148"/>
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="12" customHeight="1">
-      <c r="A31" s="64"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="39"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="111"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="125"/>
       <c r="G31" s="57"/>
       <c r="H31" s="9"/>
       <c r="I31" s="18"/>
@@ -9491,25 +9497,25 @@
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
-      <c r="AI31" s="101"/>
-      <c r="AJ31" s="101"/>
+      <c r="AI31" s="148"/>
+      <c r="AJ31" s="148"/>
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="12" customHeight="1">
-      <c r="A32" s="63">
+      <c r="A32" s="72">
         <v>15</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="113" t="s">
+      <c r="D32" s="77"/>
+      <c r="E32" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="117"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="40"/>
       <c r="H32" s="7"/>
       <c r="I32" s="16"/>
@@ -9538,17 +9544,17 @@
       <c r="AF32" s="42"/>
       <c r="AG32" s="42"/>
       <c r="AH32" s="42"/>
-      <c r="AI32" s="101"/>
-      <c r="AJ32" s="101"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="148"/>
       <c r="AK32" s="3"/>
     </row>
     <row r="33" spans="1:37" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="155"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="118"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="81"/>
       <c r="G33" s="41"/>
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
@@ -9577,8 +9583,8 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
-      <c r="AI33" s="102"/>
-      <c r="AJ33" s="102"/>
+      <c r="AI33" s="149"/>
+      <c r="AJ33" s="149"/>
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37">
@@ -9599,53 +9605,12 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AJ4:AJ33"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -9662,12 +9627,53 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
